--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/9_11R22.xlsx
@@ -668,88 +668,88 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08255834009622605</v>
+        <v>0.1323555127108688</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.07095267385346431</v>
       </c>
       <c r="F2">
-        <v>0.1253333663955731</v>
+        <v>0.1680232295360013</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03873395320146739</v>
       </c>
       <c r="I2">
-        <v>0.007637279683622558</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008588129985992947</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.04246868831391508</v>
+        <v>0.006566420960908485</v>
       </c>
       <c r="L2">
-        <v>0.05687190164486957</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.02764840485638793</v>
+        <v>0.08990504111717847</v>
       </c>
       <c r="N2">
-        <v>0.1740004012864822</v>
+        <v>0.07181094286587203</v>
       </c>
       <c r="O2">
-        <v>0.0724103871252537</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.02752991575076588</v>
       </c>
       <c r="Q2">
-        <v>0.03041842626718829</v>
+        <v>0.01526707093049121</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.023625214189758</v>
       </c>
       <c r="S2">
-        <v>0.1190881383387395</v>
+        <v>0.1423692011420479</v>
       </c>
       <c r="T2">
-        <v>0.1204734512377975</v>
+        <v>0.002515933761251102</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.02538212895564761</v>
       </c>
       <c r="V2">
-        <v>0.04031701842426234</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0108566365195112</v>
+        <v>0.03841559961609007</v>
       </c>
       <c r="X2">
-        <v>0.03592938499107629</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.002553311409863614</v>
+        <v>0.01326368144800134</v>
       </c>
       <c r="Z2">
-        <v>0.0006946878984853317</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.04199175716466143</v>
       </c>
       <c r="AB2">
-        <v>0.04087312009375536</v>
+        <v>0.07648194906156978</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.01480977373395479</v>
       </c>
       <c r="AE2">
-        <v>0.001278925430997336</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1238361575677013</v>
+        <v>0.1649712590872731</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.07241274824491035</v>
       </c>
       <c r="F3">
-        <v>0.1855586826212371</v>
+        <v>0.2321627324094055</v>
       </c>
       <c r="G3">
-        <v>0.003610073280380999</v>
+        <v>0.005287807405019005</v>
       </c>
       <c r="H3">
-        <v>0.002440728811374573</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -796,70 +796,70 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03529951484617152</v>
+        <v>0.0130419921886019</v>
       </c>
       <c r="L3">
-        <v>0.03414171668253544</v>
+        <v>0.04403914661383573</v>
       </c>
       <c r="M3">
-        <v>0.02579921309692247</v>
+        <v>0.04701274056427622</v>
       </c>
       <c r="N3">
-        <v>0.111134080554006</v>
+        <v>0.05849797836632271</v>
       </c>
       <c r="O3">
-        <v>0.09888846719753042</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0157860465808578</v>
       </c>
       <c r="Q3">
-        <v>0.008757819405379137</v>
+        <v>0.02130116052964768</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.02115531962800911</v>
       </c>
       <c r="S3">
-        <v>0.1334247344561416</v>
+        <v>0.1383049282800371</v>
       </c>
       <c r="T3">
-        <v>0.1354017349557963</v>
+        <v>0.006479511683722963</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.02399558181595895</v>
       </c>
       <c r="V3">
-        <v>0.02604786016275469</v>
+        <v>0.0009899595870576851</v>
       </c>
       <c r="W3">
-        <v>0.01409547731843336</v>
+        <v>0.005913225318804095</v>
       </c>
       <c r="X3">
-        <v>0.01473040366369149</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.006615058421489239</v>
+        <v>0.02019887913468089</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.01907348392199947</v>
       </c>
       <c r="AA3">
-        <v>0.002355149218876323</v>
+        <v>0.0004245232883139631</v>
       </c>
       <c r="AB3">
-        <v>0.0261207409325054</v>
+        <v>0.04486481487028358</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.023908037363729</v>
       </c>
       <c r="AE3">
-        <v>0.004953324464808982</v>
+        <v>0.02017812311725303</v>
       </c>
       <c r="AF3">
-        <v>0.006789062342263479</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -882,91 +882,91 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07406299763220055</v>
+        <v>0.2341762969919355</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1421996459907697</v>
+        <v>0.1818866679515078</v>
       </c>
       <c r="G4">
-        <v>0.01632498272710818</v>
+        <v>0.006106677443753169</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0002389584161129217</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.004147294729890494</v>
       </c>
       <c r="K4">
-        <v>0.09068025874036251</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0430007227205885</v>
       </c>
       <c r="M4">
-        <v>0.04693837922964312</v>
+        <v>0.03492900480228157</v>
       </c>
       <c r="N4">
-        <v>0.07419422336936082</v>
+        <v>0.1124430982849784</v>
       </c>
       <c r="O4">
-        <v>0.1676141013927368</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.003220024664199043</v>
       </c>
       <c r="Q4">
-        <v>0.007808043329027344</v>
+        <v>0.04033040766461567</v>
       </c>
       <c r="R4">
-        <v>0.01458319578020061</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1029574322484844</v>
+        <v>0.14222019115482</v>
       </c>
       <c r="T4">
-        <v>0.1692719768106869</v>
+        <v>0.06012816920546694</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.02951570636221833</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.02537452855803249</v>
+        <v>0.01038996742673358</v>
       </c>
       <c r="X4">
-        <v>0.00453546641957254</v>
+        <v>0.01558971214404686</v>
       </c>
       <c r="Y4">
-        <v>0.001040029873565519</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.006614388527972207</v>
       </c>
       <c r="AA4">
-        <v>0.01000996813796743</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01684874620641609</v>
+        <v>0.07709699704970167</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.007125876789445473</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.002175325018543305</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01116866921145666</v>
       </c>
       <c r="AF4">
-        <v>0.006040317191646783</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.007011549801950276</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -989,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1123349555335228</v>
+        <v>0.216039692691914</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01698139504635199</v>
       </c>
       <c r="F5">
-        <v>0.226711022269978</v>
+        <v>0.1737081158350948</v>
       </c>
       <c r="G5">
-        <v>0.04174096478645225</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01909781450953615</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1010,70 +1010,70 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0159168460263316</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0438997204691205</v>
+        <v>0.02449284351812589</v>
       </c>
       <c r="M5">
-        <v>0.02175326321320363</v>
+        <v>0.01784298234547036</v>
       </c>
       <c r="N5">
-        <v>0.09112151046859383</v>
+        <v>0.09558109422114137</v>
       </c>
       <c r="O5">
-        <v>0.1046961834374412</v>
+        <v>0.01256177591258307</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.007539329815603492</v>
+        <v>0.008451404314502203</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.01757746646254697</v>
       </c>
       <c r="S5">
-        <v>0.12267284517722</v>
+        <v>0.1739285697763847</v>
       </c>
       <c r="T5">
-        <v>0.1106661700963923</v>
+        <v>0.02208617669940669</v>
       </c>
       <c r="U5">
-        <v>0.01698216046366018</v>
+        <v>0.02231023474600248</v>
       </c>
       <c r="V5">
-        <v>0.02803817917472546</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.008011064294840813</v>
+        <v>0.04259543569514073</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02353011628200288</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0008335789621221891</v>
+        <v>0.01181248539458603</v>
       </c>
       <c r="AB5">
-        <v>0.01535364177090774</v>
+        <v>0.08066461401190991</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.02487983857546455</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.01316466240290294</v>
       </c>
       <c r="AF5">
-        <v>0.008198447757881176</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.006223397840935017</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2395425462300438</v>
+        <v>0.1107539001211337</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2230862494747528</v>
+        <v>0.2491845429217112</v>
       </c>
       <c r="G6">
-        <v>0.01281290757092773</v>
+        <v>0.06446728011828375</v>
       </c>
       <c r="H6">
-        <v>0.009150650978240853</v>
+        <v>0.006750315583033696</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1117,70 +1117,70 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.007991909503817516</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01752385633182297</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0327803440766377</v>
+        <v>0.1158680290750218</v>
       </c>
       <c r="O6">
-        <v>0.1416758392482845</v>
+        <v>0.03682053394125859</v>
       </c>
       <c r="P6">
-        <v>0.002868012275796494</v>
+        <v>0.009856119426116522</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.04085715519692885</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.1218854591534439</v>
+        <v>0.08791622255230926</v>
       </c>
       <c r="T6">
-        <v>0.09661951609390018</v>
+        <v>0.07507051699399521</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.03007705345137317</v>
       </c>
       <c r="W6">
-        <v>0.03375432595927383</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01684302289755514</v>
       </c>
       <c r="Y6">
-        <v>0.005735741446671935</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.01634547530862549</v>
       </c>
       <c r="AA6">
-        <v>0.03750132221206673</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02234999660836813</v>
+        <v>0.08144128486025524</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.02315485981084714</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.002445433572380818</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01462439783734757</v>
       </c>
       <c r="AF6">
-        <v>0.01224517916777378</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1323,100 +1323,100 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.08255834009622605</v>
+        <v>0.1323555127108688</v>
       </c>
       <c r="E2">
-        <v>0.08255834009622605</v>
+        <v>0.2033081865643331</v>
       </c>
       <c r="F2">
-        <v>0.2078917064917991</v>
+        <v>0.3713314161003344</v>
       </c>
       <c r="G2">
-        <v>0.2078917064917991</v>
+        <v>0.3713314161003344</v>
       </c>
       <c r="H2">
-        <v>0.2078917064917991</v>
+        <v>0.4100653693018018</v>
       </c>
       <c r="I2">
-        <v>0.2155289861754217</v>
+        <v>0.4100653693018018</v>
       </c>
       <c r="J2">
-        <v>0.2241171161614146</v>
+        <v>0.4100653693018018</v>
       </c>
       <c r="K2">
-        <v>0.2665858044753297</v>
+        <v>0.4166317902627102</v>
       </c>
       <c r="L2">
-        <v>0.3234577061201993</v>
+        <v>0.4166317902627102</v>
       </c>
       <c r="M2">
-        <v>0.3511061109765872</v>
+        <v>0.5065368313798887</v>
       </c>
       <c r="N2">
-        <v>0.5251065122630694</v>
+        <v>0.5783477742457608</v>
       </c>
       <c r="O2">
-        <v>0.5975168993883231</v>
+        <v>0.5783477742457608</v>
       </c>
       <c r="P2">
-        <v>0.5975168993883231</v>
+        <v>0.6058776899965267</v>
       </c>
       <c r="Q2">
-        <v>0.6279353256555114</v>
+        <v>0.6211447609270179</v>
       </c>
       <c r="R2">
-        <v>0.6279353256555114</v>
+        <v>0.6447699751167759</v>
       </c>
       <c r="S2">
-        <v>0.7470234639942509</v>
+        <v>0.7871391762588238</v>
       </c>
       <c r="T2">
-        <v>0.8674969152320484</v>
+        <v>0.7896551100200749</v>
       </c>
       <c r="U2">
-        <v>0.8674969152320484</v>
+        <v>0.8150372389757226</v>
       </c>
       <c r="V2">
-        <v>0.9078139336563108</v>
+        <v>0.8150372389757226</v>
       </c>
       <c r="W2">
-        <v>0.918670570175822</v>
+        <v>0.8534528385918126</v>
       </c>
       <c r="X2">
-        <v>0.9545999551668982</v>
+        <v>0.8534528385918126</v>
       </c>
       <c r="Y2">
-        <v>0.9571532665767618</v>
+        <v>0.866716520039814</v>
       </c>
       <c r="Z2">
-        <v>0.9578479544752472</v>
+        <v>0.866716520039814</v>
       </c>
       <c r="AA2">
-        <v>0.9578479544752472</v>
+        <v>0.9087082772044754</v>
       </c>
       <c r="AB2">
-        <v>0.9987210745690025</v>
+        <v>0.9851902262660452</v>
       </c>
       <c r="AC2">
-        <v>0.9987210745690025</v>
+        <v>0.9851902262660452</v>
       </c>
       <c r="AD2">
-        <v>0.9987210745690025</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -1430,88 +1430,88 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1238361575677013</v>
+        <v>0.1649712590872731</v>
       </c>
       <c r="E3">
-        <v>0.1238361575677013</v>
+        <v>0.2373840073321835</v>
       </c>
       <c r="F3">
-        <v>0.3093948401889384</v>
+        <v>0.4695467397415891</v>
       </c>
       <c r="G3">
-        <v>0.3130049134693194</v>
+        <v>0.4748345471466081</v>
       </c>
       <c r="H3">
-        <v>0.315445642280694</v>
+        <v>0.4748345471466081</v>
       </c>
       <c r="I3">
-        <v>0.315445642280694</v>
+        <v>0.4748345471466081</v>
       </c>
       <c r="J3">
-        <v>0.315445642280694</v>
+        <v>0.4748345471466081</v>
       </c>
       <c r="K3">
-        <v>0.3507451571268655</v>
+        <v>0.48787653933521</v>
       </c>
       <c r="L3">
-        <v>0.384886873809401</v>
+        <v>0.5319156859490457</v>
       </c>
       <c r="M3">
-        <v>0.4106860869063234</v>
+        <v>0.5789284265133219</v>
       </c>
       <c r="N3">
-        <v>0.5218201674603294</v>
+        <v>0.6374264048796446</v>
       </c>
       <c r="O3">
-        <v>0.6207086346578599</v>
+        <v>0.6374264048796446</v>
       </c>
       <c r="P3">
-        <v>0.6207086346578599</v>
+        <v>0.6532124514605024</v>
       </c>
       <c r="Q3">
-        <v>0.629466454063239</v>
+        <v>0.6745136119901501</v>
       </c>
       <c r="R3">
-        <v>0.629466454063239</v>
+        <v>0.6956689316181592</v>
       </c>
       <c r="S3">
-        <v>0.7628911885193805</v>
+        <v>0.8339738598981963</v>
       </c>
       <c r="T3">
-        <v>0.8982929234751769</v>
+        <v>0.8404533715819192</v>
       </c>
       <c r="U3">
-        <v>0.8982929234751769</v>
+        <v>0.8644489533978782</v>
       </c>
       <c r="V3">
-        <v>0.9243407836379316</v>
+        <v>0.8654389129849359</v>
       </c>
       <c r="W3">
-        <v>0.938436260956365</v>
+        <v>0.87135213830374</v>
       </c>
       <c r="X3">
-        <v>0.9531666646200565</v>
+        <v>0.87135213830374</v>
       </c>
       <c r="Y3">
-        <v>0.9597817230415457</v>
+        <v>0.8915510174384209</v>
       </c>
       <c r="Z3">
-        <v>0.9597817230415457</v>
+        <v>0.9106245013604204</v>
       </c>
       <c r="AA3">
-        <v>0.9621368722604221</v>
+        <v>0.9110490246487344</v>
       </c>
       <c r="AB3">
-        <v>0.9882576131929275</v>
+        <v>0.955913839519018</v>
       </c>
       <c r="AC3">
-        <v>0.9882576131929275</v>
+        <v>0.955913839519018</v>
       </c>
       <c r="AD3">
-        <v>0.9882576131929275</v>
+        <v>0.979821876882747</v>
       </c>
       <c r="AE3">
-        <v>0.9932109376577365</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.07406299763220055</v>
+        <v>0.2341762969919355</v>
       </c>
       <c r="E4">
-        <v>0.07406299763220055</v>
+        <v>0.2341762969919355</v>
       </c>
       <c r="F4">
-        <v>0.2162626436229703</v>
+        <v>0.4160629649434432</v>
       </c>
       <c r="G4">
-        <v>0.2325876263500785</v>
+        <v>0.4221696423871964</v>
       </c>
       <c r="H4">
-        <v>0.2325876263500785</v>
+        <v>0.4224086008033093</v>
       </c>
       <c r="I4">
-        <v>0.2325876263500785</v>
+        <v>0.4224086008033093</v>
       </c>
       <c r="J4">
-        <v>0.2325876263500785</v>
+        <v>0.4265558955331998</v>
       </c>
       <c r="K4">
-        <v>0.323267885090441</v>
+        <v>0.4265558955331998</v>
       </c>
       <c r="L4">
-        <v>0.323267885090441</v>
+        <v>0.4695566182537884</v>
       </c>
       <c r="M4">
-        <v>0.3702062643200841</v>
+        <v>0.5044856230560699</v>
       </c>
       <c r="N4">
-        <v>0.4444004876894449</v>
+        <v>0.6169287213410483</v>
       </c>
       <c r="O4">
-        <v>0.6120145890821818</v>
+        <v>0.6169287213410483</v>
       </c>
       <c r="P4">
-        <v>0.6120145890821818</v>
+        <v>0.6201487460052473</v>
       </c>
       <c r="Q4">
-        <v>0.6198226324112091</v>
+        <v>0.660479153669863</v>
       </c>
       <c r="R4">
-        <v>0.6344058281914097</v>
+        <v>0.660479153669863</v>
       </c>
       <c r="S4">
-        <v>0.7373632604398941</v>
+        <v>0.802699344824683</v>
       </c>
       <c r="T4">
-        <v>0.906635237250581</v>
+        <v>0.8628275140301499</v>
       </c>
       <c r="U4">
-        <v>0.906635237250581</v>
+        <v>0.8628275140301499</v>
       </c>
       <c r="V4">
-        <v>0.9361509436127994</v>
+        <v>0.8628275140301499</v>
       </c>
       <c r="W4">
-        <v>0.9615254721708318</v>
+        <v>0.8732174814568835</v>
       </c>
       <c r="X4">
-        <v>0.9660609385904044</v>
+        <v>0.8888071936009303</v>
       </c>
       <c r="Y4">
-        <v>0.96710096846397</v>
+        <v>0.8888071936009303</v>
       </c>
       <c r="Z4">
-        <v>0.96710096846397</v>
+        <v>0.8954215821289025</v>
       </c>
       <c r="AA4">
-        <v>0.9771109366019374</v>
+        <v>0.8954215821289025</v>
       </c>
       <c r="AB4">
-        <v>0.9939596828083535</v>
+        <v>0.9725185791786042</v>
       </c>
       <c r="AC4">
-        <v>0.9939596828083535</v>
+        <v>0.9796444559680496</v>
       </c>
       <c r="AD4">
-        <v>0.9939596828083535</v>
+        <v>0.9818197809865929</v>
       </c>
       <c r="AE4">
-        <v>0.9939596828083535</v>
+        <v>0.9929884501980496</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9929884501980496</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9929884501980496</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9929884501980496</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,100 +1644,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1123349555335228</v>
+        <v>0.216039692691914</v>
       </c>
       <c r="E5">
-        <v>0.1123349555335228</v>
+        <v>0.233021087738266</v>
       </c>
       <c r="F5">
-        <v>0.3390459778035009</v>
+        <v>0.4067292035733607</v>
       </c>
       <c r="G5">
-        <v>0.3807869425899531</v>
+        <v>0.4067292035733607</v>
       </c>
       <c r="H5">
-        <v>0.3807869425899531</v>
+        <v>0.4258270180828969</v>
       </c>
       <c r="I5">
-        <v>0.3807869425899531</v>
+        <v>0.4258270180828969</v>
       </c>
       <c r="J5">
-        <v>0.3807869425899531</v>
+        <v>0.4258270180828969</v>
       </c>
       <c r="K5">
-        <v>0.3967037886162847</v>
+        <v>0.4258270180828969</v>
       </c>
       <c r="L5">
-        <v>0.4406035090854052</v>
+        <v>0.4503198616010228</v>
       </c>
       <c r="M5">
-        <v>0.4623567722986088</v>
+        <v>0.4681628439464932</v>
       </c>
       <c r="N5">
-        <v>0.5534782827672027</v>
+        <v>0.5637439381676346</v>
       </c>
       <c r="O5">
-        <v>0.6581744662046439</v>
+        <v>0.5763057140802177</v>
       </c>
       <c r="P5">
-        <v>0.6581744662046439</v>
+        <v>0.5763057140802177</v>
       </c>
       <c r="Q5">
-        <v>0.6657137960202474</v>
+        <v>0.5847571183947199</v>
       </c>
       <c r="R5">
-        <v>0.6657137960202474</v>
+        <v>0.6023345848572669</v>
       </c>
       <c r="S5">
-        <v>0.7883866411974674</v>
+        <v>0.7762631546336516</v>
       </c>
       <c r="T5">
-        <v>0.8990528112938596</v>
+        <v>0.7983493313330583</v>
       </c>
       <c r="U5">
-        <v>0.9160349717575198</v>
+        <v>0.8206595660790608</v>
       </c>
       <c r="V5">
-        <v>0.9440731509322453</v>
+        <v>0.8206595660790608</v>
       </c>
       <c r="W5">
-        <v>0.9520842152270861</v>
+        <v>0.8632550017742014</v>
       </c>
       <c r="X5">
-        <v>0.9520842152270861</v>
+        <v>0.8632550017742014</v>
       </c>
       <c r="Y5">
-        <v>0.9756143315090889</v>
+        <v>0.8632550017742014</v>
       </c>
       <c r="Z5">
-        <v>0.9756143315090889</v>
+        <v>0.8632550017742014</v>
       </c>
       <c r="AA5">
-        <v>0.9764479104712112</v>
+        <v>0.8750674871687875</v>
       </c>
       <c r="AB5">
-        <v>0.9918015522421189</v>
+        <v>0.9557321011806974</v>
       </c>
       <c r="AC5">
-        <v>0.9918015522421189</v>
+        <v>0.9557321011806974</v>
       </c>
       <c r="AD5">
-        <v>0.9918015522421189</v>
+        <v>0.9806119397561619</v>
       </c>
       <c r="AE5">
-        <v>0.9918015522421189</v>
+        <v>0.9937766021590648</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9937766021590648</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9937766021590648</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9937766021590648</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2395425462300438</v>
+        <v>0.1107539001211337</v>
       </c>
       <c r="E6">
-        <v>0.2395425462300438</v>
+        <v>0.1107539001211337</v>
       </c>
       <c r="F6">
-        <v>0.4626287957047966</v>
+        <v>0.3599384430428449</v>
       </c>
       <c r="G6">
-        <v>0.4754417032757244</v>
+        <v>0.4244057231611286</v>
       </c>
       <c r="H6">
-        <v>0.4845923542539652</v>
+        <v>0.4311560387441623</v>
       </c>
       <c r="I6">
-        <v>0.4845923542539652</v>
+        <v>0.4311560387441623</v>
       </c>
       <c r="J6">
-        <v>0.4845923542539652</v>
+        <v>0.4311560387441623</v>
       </c>
       <c r="K6">
-        <v>0.4925842637577827</v>
+        <v>0.4311560387441623</v>
       </c>
       <c r="L6">
-        <v>0.4925842637577827</v>
+        <v>0.4486798950759853</v>
       </c>
       <c r="M6">
-        <v>0.4925842637577827</v>
+        <v>0.4486798950759853</v>
       </c>
       <c r="N6">
-        <v>0.5253646078344204</v>
+        <v>0.5645479241510071</v>
       </c>
       <c r="O6">
-        <v>0.6670404470827049</v>
+        <v>0.6013684580922657</v>
       </c>
       <c r="P6">
-        <v>0.6699084593585014</v>
+        <v>0.6112245775183822</v>
       </c>
       <c r="Q6">
-        <v>0.6699084593585014</v>
+        <v>0.6520817327153111</v>
       </c>
       <c r="R6">
-        <v>0.6699084593585014</v>
+        <v>0.6520817327153111</v>
       </c>
       <c r="S6">
-        <v>0.7917939185119452</v>
+        <v>0.7399979552676204</v>
       </c>
       <c r="T6">
-        <v>0.8884134346058454</v>
+        <v>0.8150684722616156</v>
       </c>
       <c r="U6">
-        <v>0.8884134346058454</v>
+        <v>0.8150684722616156</v>
       </c>
       <c r="V6">
-        <v>0.8884134346058454</v>
+        <v>0.8451455257129887</v>
       </c>
       <c r="W6">
-        <v>0.9221677605651193</v>
+        <v>0.8451455257129887</v>
       </c>
       <c r="X6">
-        <v>0.9221677605651193</v>
+        <v>0.8619885486105439</v>
       </c>
       <c r="Y6">
-        <v>0.9279035020117912</v>
+        <v>0.8619885486105439</v>
       </c>
       <c r="Z6">
-        <v>0.9279035020117912</v>
+        <v>0.8783340239191694</v>
       </c>
       <c r="AA6">
-        <v>0.9654048242238579</v>
+        <v>0.8783340239191694</v>
       </c>
       <c r="AB6">
-        <v>0.987754820832226</v>
+        <v>0.9597753087794246</v>
       </c>
       <c r="AC6">
-        <v>0.987754820832226</v>
+        <v>0.9829301685902718</v>
       </c>
       <c r="AD6">
-        <v>0.987754820832226</v>
+        <v>0.9853756021626526</v>
       </c>
       <c r="AE6">
-        <v>0.987754820832226</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1912,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5251065122630694</v>
+        <v>0.5065368313798887</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1953,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5218201674603294</v>
+        <v>0.5319156859490457</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -1994,16 +1994,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6120145890821818</v>
+        <v>0.5044856230560699</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5534782827672027</v>
+        <v>0.5637439381676346</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5253646078344204</v>
+        <v>0.5645479241510071</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7470234639942509</v>
+        <v>0.7871391762588238</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7628911885193805</v>
+        <v>0.8339738598981963</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7373632604398941</v>
+        <v>0.802699344824683</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7883866411974674</v>
+        <v>0.7762631546336516</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7917939185119452</v>
+        <v>0.7399979552676204</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8150372389757226</v>
+      </c>
+      <c r="G2">
         <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8674969152320484</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8982929234751769</v>
+        <v>0.8339738598981963</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.906635237250581</v>
+        <v>0.802699344824683</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8206595660790608</v>
+      </c>
+      <c r="G5">
         <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8990528112938596</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8884134346058454</v>
+        <v>0.8150684722616156</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9078139336563108</v>
+        <v>0.9087082772044754</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -2730,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9243407836379316</v>
+        <v>0.9106245013604204</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>9</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.906635237250581</v>
+        <v>0.9725185791786042</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>9</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9160349717575198</v>
+        <v>0.9557321011806974</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9221677605651193</v>
+        <v>0.9597753087794246</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H6">
         <v>9</v>
